--- a/Placement/LBSheet/FINAL450.xlsx
+++ b/Placement/LBSheet/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13940"/>
+    <workbookView windowWidth="28800" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1496,41 +1496,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1541,8 +1511,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1556,23 +1548,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1587,10 +1564,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1602,16 +1580,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,9 +1594,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,6 +1619,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,13 +1648,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1696,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,121 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,24 +1832,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1842,26 +1842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,6 +1868,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1898,17 +1913,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1916,17 +1920,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,146 +1942,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,8 +2431,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="2"/>
@@ -2571,7 +2571,7 @@
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2582,7 +2582,7 @@
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2593,7 +2593,7 @@
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2604,7 +2604,7 @@
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2615,7 +2615,7 @@
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -7513,400 +7513,399 @@
     <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
     <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
     <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B16" r:id="rId10" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId11" display="Merge 2 sorted arrays without using Extra space."/>
     <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B19" r:id="rId12" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId13" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId14" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId15" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId16" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId17" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId18" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId19" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId20" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId21" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId22" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId23" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId24" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId25" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId26" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId27" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId28" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId29" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId30" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId31" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId32" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId33" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId34" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId36" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId37" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId38" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId39" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId40" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId41" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId42" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId43" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId44" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId45" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId46" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId47" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId48" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId49" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId50" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId51" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId52" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId53" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId54" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId55" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId56" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId57" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId58" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId59" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId60" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId61" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId62" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId63" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId64" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId65" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId66" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId67" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId68" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId69" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId70" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId71" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId72" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId73" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId74" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId75" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId76" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId78" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId80" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId81" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId82" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId83" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId84" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId85" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId86" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId87" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId88" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId89" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId90" display="square root of an integer"/>
+    <hyperlink ref="B106" r:id="rId91" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId92" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId93" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId94" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId95" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId96" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B113" r:id="rId97" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId11" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId98" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId99" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId100" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId101" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId102" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId103" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId104" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId105" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId106" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId107" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId108" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId109" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId110" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId111" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId112" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId108" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId113" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId114" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId115" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId14" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId116" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId117" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId118" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId119" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId120" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId121" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId122" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId123" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId124" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId125" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId126" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId127" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId128" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId129" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId130" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId131" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId132" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId133" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId134" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId135" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId136" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId137" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId138" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId139" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId140" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId141" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId142" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId143" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId144" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId145" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId146" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId147" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId148" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId149" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId150" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId151" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId152" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId153" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId154" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId155" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId156" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId157" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId158" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId159" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId160" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId161" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId162" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId164" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId165" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId166" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId167" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId168" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId169" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId170" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId171" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId172" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId173" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId174" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId175" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId176" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId177" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId178" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId179" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId180" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId181" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId182" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId183" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId184" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId185" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId186" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId187" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId188" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId189" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId190" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId191" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId192" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId193" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId194" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId195" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId196" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId197" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId198" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId199" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId200" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId201" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId202" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId203" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId204" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId205" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId206" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId207" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId208" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId209" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId210" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId211" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId212" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId213" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId214" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId215" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId216" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId217" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId218" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId219" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId220" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId221" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId222" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId223" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId224" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId225" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId226" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId227" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId228" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId229" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId230" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId231" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId232" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId233" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId28" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId234" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId235" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId236" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId237" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId238" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId239" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId240" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId241" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId242" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId243" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId244" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId245" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId246" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId247" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId248" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId249" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId250" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId252" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId253" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId254" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId255" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId256" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId54" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId257" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId258" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId259" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId260" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId261" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId262" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId263" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId264" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId265" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId266" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId267" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId268" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId269" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId270" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId271" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId272" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId273" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId274" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId275" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId276" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId277" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId278" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId279" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId280" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId281" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId282" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId283" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId284" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId285" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId286" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId287" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId288" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId289" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId290" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId291" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId292" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId293" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId294" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId295" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId296" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId153" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId297" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId298" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId299" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId300" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId301" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId302" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId303" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId304" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId305" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId306" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId148" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId307" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId308" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId309" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId241" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId310" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId311" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId312" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId313" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId314" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId315" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId316" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId244" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId317" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId318" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId319" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId320" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId321" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId322" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId323" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId324" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId325" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId326" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId327" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId328" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId329" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId330" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId331" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId332" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId333" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId334" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId335" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId336" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId337" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId338" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId339" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId340" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId341" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId342" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId343" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId257" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId249" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId345" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId346" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId347" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId348" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId349" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId221" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId350" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId351" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId352" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId353" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId354" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId355" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId356" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId357" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId358" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId359" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId360" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId361" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId57" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId362" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId363" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId364" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId365" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId366" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId74" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId367" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId368" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId369" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId370" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId371" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId372" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId373" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId374" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId375" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId376" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId377" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId378" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId379" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId380" display="Minimum number of jumps to reach end"/>
     <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
     <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
     <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
@@ -7915,21 +7914,21 @@
     <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
     <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
     <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
+    <hyperlink ref="B447" r:id="rId60" display="Word Break Problem"/>
     <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B449" r:id="rId251" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
     <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
     <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
     <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
     <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
     <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
     <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B457" r:id="rId24" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
     <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
     <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
     <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
+    <hyperlink ref="B461" r:id="rId56" display="Word Wrap Problem"/>
     <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
     <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
     <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
@@ -7949,6 +7948,7 @@
     <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
     <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
     <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
+    <hyperlink ref="B15" r:id="rId380" display="Minimum no. of Jumps to reach end of an array"/>
     <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
